--- a/docs/classifica.xlsx
+++ b/docs/classifica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\Vs_Code\Sito_Motogp\Sito_Motogp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A289E5D7-D6B7-4005-8911-DDB142A071D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF243A1-5380-42E4-8193-E59F8C4435F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="173">
   <si>
     <t>2024 STAGIONE 1: MOTO 3</t>
   </si>
@@ -230,19 +230,142 @@
     <t>COSTRUTTORI</t>
   </si>
   <si>
+    <t>CLASSIFICA PILOTI</t>
+  </si>
+  <si>
     <t>HONDA</t>
   </si>
   <si>
+    <t>Bonelli</t>
+  </si>
+  <si>
+    <t>Leopard Racing</t>
+  </si>
+  <si>
+    <t>Rossia</t>
+  </si>
+  <si>
+    <t>CIP</t>
+  </si>
+  <si>
+    <t>Lunetta</t>
+  </si>
+  <si>
+    <t>SIC58</t>
+  </si>
+  <si>
     <t>KTM</t>
   </si>
   <si>
+    <t>Holgado</t>
+  </si>
+  <si>
+    <t>RB GasGas Tech3</t>
+  </si>
+  <si>
+    <t>Zurutuza</t>
+  </si>
+  <si>
+    <t>KTM Ajo</t>
+  </si>
+  <si>
+    <t>Almansa</t>
+  </si>
+  <si>
+    <t>Rivacold</t>
+  </si>
+  <si>
     <t>CF MOTO</t>
   </si>
   <si>
+    <t>Alonso</t>
+  </si>
+  <si>
+    <t>CF Moto</t>
+  </si>
+  <si>
+    <t>Muñoz</t>
+  </si>
+  <si>
+    <t>BOE</t>
+  </si>
+  <si>
+    <t>Dettwiler</t>
+  </si>
+  <si>
     <t>GASGAS</t>
   </si>
   <si>
+    <t>Ortola</t>
+  </si>
+  <si>
+    <t>MT Helmet</t>
+  </si>
+  <si>
+    <t>Furusato</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Whatly</t>
+  </si>
+  <si>
+    <t>MLAV</t>
+  </si>
+  <si>
     <t>HUSQUARNA</t>
+  </si>
+  <si>
+    <t>Veijer</t>
+  </si>
+  <si>
+    <t>Husquarna</t>
+  </si>
+  <si>
+    <t>Suzuki</t>
+  </si>
+  <si>
+    <t>Ogden</t>
+  </si>
+  <si>
+    <t>Gabrielli</t>
+  </si>
+  <si>
+    <t>Bertelle</t>
+  </si>
+  <si>
+    <t>Farioli</t>
+  </si>
+  <si>
+    <t>Kelso</t>
+  </si>
+  <si>
+    <t>Carraro</t>
+  </si>
+  <si>
+    <t>Level UP-MTA</t>
+  </si>
+  <si>
+    <t>Nepa</t>
+  </si>
+  <si>
+    <t>Roulstone</t>
+  </si>
+  <si>
+    <t>GasGas Tech 3</t>
+  </si>
+  <si>
+    <t>Rueda</t>
+  </si>
+  <si>
+    <t>Yamanaka</t>
+  </si>
+  <si>
+    <t>Esteban</t>
+  </si>
+  <si>
+    <t>Buarsi</t>
   </si>
   <si>
     <t>TEMPI IN QUALIFICA</t>
@@ -516,7 +639,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -559,11 +682,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -596,12 +767,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -819,10 +1001,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G40" workbookViewId="0">
       <selection activeCell="U81" sqref="U81"/>
     </sheetView>
   </sheetViews>
@@ -833,6 +1016,7 @@
     <col min="3" max="3" width="30.21875" customWidth="1"/>
     <col min="4" max="4" width="15.21875" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" customWidth="1"/>
     <col min="11" max="11" width="14.77734375" customWidth="1"/>
     <col min="12" max="12" width="14.88671875" customWidth="1"/>
@@ -844,31 +1028,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="2">
         <v>1</v>
@@ -878,29 +1062,29 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="4">
         <v>2</v>
@@ -910,29 +1094,29 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="5">
         <v>3</v>
@@ -1985,7 +2169,7 @@
       <c r="V24" s="10"/>
       <c r="W24" s="10"/>
     </row>
-    <row r="25" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>38</v>
       </c>
@@ -2057,7 +2241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -2082,7 +2266,7 @@
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
     </row>
-    <row r="27" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>39</v>
       </c>
@@ -2154,7 +2338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -2179,7 +2363,7 @@
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
     </row>
-    <row r="29" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>41</v>
       </c>
@@ -2251,7 +2435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2276,7 +2460,7 @@
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
     </row>
-    <row r="31" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>42</v>
       </c>
@@ -2348,7 +2532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -2373,7 +2557,7 @@
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
     </row>
-    <row r="33" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>44</v>
       </c>
@@ -2445,7 +2629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -2470,7 +2654,7 @@
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
     </row>
-    <row r="35" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>45</v>
       </c>
@@ -2542,7 +2726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -2567,7 +2751,7 @@
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
     </row>
-    <row r="37" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>47</v>
       </c>
@@ -2639,7 +2823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -3622,6 +3806,20 @@
       <c r="E59" s="13" t="s">
         <v>2</v>
       </c>
+      <c r="G59" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="22"/>
     </row>
     <row r="60" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
@@ -3632,12 +3830,48 @@
         <v>356.5</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E60" s="10">
         <f>B41+B39+B47+B49+B49+B51+B53+B43+B45+B55+B57</f>
         <v>858.5</v>
       </c>
+      <c r="G60" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I60" s="10">
+        <v>274</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L60" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M60" s="10">
+        <v>128.5</v>
+      </c>
+      <c r="N60" s="10">
+        <v>11</v>
+      </c>
+      <c r="O60" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P60" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q60" s="10">
+        <v>18</v>
+      </c>
+      <c r="R60" s="10">
+        <v>21</v>
+      </c>
     </row>
     <row r="61" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
@@ -3648,12 +3882,48 @@
         <v>259</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E61" s="10">
         <f>B69+B70+B67+B68+B63+B72</f>
         <v>1149</v>
       </c>
+      <c r="G61" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I61" s="10">
+        <v>232</v>
+      </c>
+      <c r="J61" s="4">
+        <v>2</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L61" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M61" s="10">
+        <v>124</v>
+      </c>
+      <c r="N61" s="10">
+        <v>12</v>
+      </c>
+      <c r="O61" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P61" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q61" s="10">
+        <v>15.5</v>
+      </c>
+      <c r="R61" s="10">
+        <v>22</v>
+      </c>
     </row>
     <row r="62" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
@@ -3664,12 +3934,48 @@
         <v>24</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E62" s="10">
         <f>B7+B9</f>
         <v>356.5</v>
       </c>
+      <c r="G62" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I62" s="10">
+        <v>223</v>
+      </c>
+      <c r="J62" s="5">
+        <v>3</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="L62" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M62" s="10">
+        <v>108</v>
+      </c>
+      <c r="N62" s="10">
+        <v>13</v>
+      </c>
+      <c r="O62" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P62" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q62" s="10">
+        <v>10</v>
+      </c>
+      <c r="R62" s="10">
+        <v>23</v>
+      </c>
     </row>
     <row r="63" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
@@ -3680,12 +3986,48 @@
         <v>16.5</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E63" s="10">
         <f>B61</f>
         <v>259</v>
       </c>
+      <c r="G63" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I63" s="10">
+        <v>218.5</v>
+      </c>
+      <c r="J63" s="10">
+        <v>4</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M63" s="10">
+        <v>86</v>
+      </c>
+      <c r="N63" s="10">
+        <v>14</v>
+      </c>
+      <c r="O63" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="P63" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q63" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="R63" s="10">
+        <v>24</v>
+      </c>
     </row>
     <row r="64" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
@@ -3696,12 +4038,48 @@
         <v>448.5</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="E64" s="10">
         <f>B71</f>
         <v>295</v>
       </c>
+      <c r="G64" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I64" s="10">
+        <v>213</v>
+      </c>
+      <c r="J64" s="10">
+        <v>5</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L64" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M64" s="10">
+        <v>82</v>
+      </c>
+      <c r="N64" s="10">
+        <v>15</v>
+      </c>
+      <c r="O64" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="P64" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q64" s="10">
+        <v>8</v>
+      </c>
+      <c r="R64" s="10">
+        <v>25</v>
+      </c>
     </row>
     <row r="65" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
@@ -3711,6 +4089,42 @@
         <f>B45+B43</f>
         <v>90.5</v>
       </c>
+      <c r="G65" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I65" s="10">
+        <v>174.5</v>
+      </c>
+      <c r="J65" s="10">
+        <v>6</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L65" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M65" s="10">
+        <v>75</v>
+      </c>
+      <c r="N65" s="10">
+        <v>16</v>
+      </c>
+      <c r="O65" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P65" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q65" s="10">
+        <v>6</v>
+      </c>
+      <c r="R65" s="10">
+        <v>26</v>
+      </c>
     </row>
     <row r="66" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
@@ -3720,6 +4134,34 @@
         <f>B41+B39</f>
         <v>104.5</v>
       </c>
+      <c r="G66" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I66" s="10">
+        <v>173</v>
+      </c>
+      <c r="J66" s="10">
+        <v>7</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L66" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M66" s="10">
+        <v>28</v>
+      </c>
+      <c r="N66" s="10">
+        <v>17</v>
+      </c>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
     </row>
     <row r="67" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
@@ -3729,6 +4171,34 @@
         <f>B37+B35</f>
         <v>138.5</v>
       </c>
+      <c r="G67" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I67" s="10">
+        <v>173</v>
+      </c>
+      <c r="J67" s="10">
+        <v>8</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M67" s="10">
+        <v>27</v>
+      </c>
+      <c r="N67" s="10">
+        <v>18</v>
+      </c>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
     </row>
     <row r="68" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
@@ -3738,6 +4208,34 @@
         <f>B33+B31</f>
         <v>201</v>
       </c>
+      <c r="G68" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I68" s="10">
+        <v>150.5</v>
+      </c>
+      <c r="J68" s="10">
+        <v>9</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L68" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M68" s="10">
+        <v>19</v>
+      </c>
+      <c r="N68" s="10">
+        <v>19</v>
+      </c>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
     </row>
     <row r="69" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
@@ -3747,6 +4245,34 @@
         <f>B29+B27</f>
         <v>281</v>
       </c>
+      <c r="G69" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I69" s="14">
+        <v>133.5</v>
+      </c>
+      <c r="J69" s="14">
+        <v>10</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L69" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M69" s="10">
+        <v>18.5</v>
+      </c>
+      <c r="N69" s="10">
+        <v>20</v>
+      </c>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
     </row>
     <row r="70" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
@@ -3756,6 +4282,10 @@
         <f>B25+B23</f>
         <v>274.5</v>
       </c>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
     </row>
     <row r="71" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
@@ -3776,8 +4306,8 @@
       </c>
     </row>
     <row r="75" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
-        <v>70</v>
+      <c r="A75" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>4</v>
@@ -3837,202 +4367,205 @@
         <v>21</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="T76" s="3" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="U76" s="3" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="G78" s="3">
         <v>9</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="T78" s="3" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="U78" s="3" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="P80" s="3" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="T80" s="3" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="U80" s="3" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:W3"/>
+    <mergeCell ref="G59:R59"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>